--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value22.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value22.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.090848491390279</v>
+        <v>4.939310073852539</v>
       </c>
       <c r="B1">
-        <v>1.341818662363134</v>
+        <v>4.401539325714111</v>
       </c>
       <c r="C1">
-        <v>1.436979901870485</v>
+        <v>3.850996971130371</v>
       </c>
       <c r="D1">
-        <v>1.58648590356703</v>
+        <v>4.774041175842285</v>
       </c>
       <c r="E1">
-        <v>1.914449101879247</v>
+        <v>4.836911201477051</v>
       </c>
     </row>
   </sheetData>
